--- a/exampleProblems/menthol_eeh/menthol_eeh.xlsx
+++ b/exampleProblems/menthol_eeh/menthol_eeh.xlsx
@@ -9,18 +9,19 @@
   <sheets>
     <sheet name="molecule" sheetId="1" r:id="rId1"/>
     <sheet name="H1_1D" sheetId="2" r:id="rId2"/>
-    <sheet name="C13_1D" sheetId="3" r:id="rId3"/>
-    <sheet name="HSQC" sheetId="4" r:id="rId4"/>
-    <sheet name="HMBC" sheetId="5" r:id="rId5"/>
-    <sheet name="COSY" sheetId="6" r:id="rId6"/>
-    <sheet name="HSQC_CH" sheetId="7" r:id="rId7"/>
+    <sheet name="H1_pureshift" sheetId="3" r:id="rId3"/>
+    <sheet name="C13_1D" sheetId="4" r:id="rId4"/>
+    <sheet name="HSQC" sheetId="5" r:id="rId5"/>
+    <sheet name="HMBC" sheetId="6" r:id="rId6"/>
+    <sheet name="COSY" sheetId="7" r:id="rId7"/>
+    <sheet name="HSQC_CH" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>smiles</t>
   </si>
@@ -68,6 +69,9 @@
   </si>
   <si>
     <t>7.01</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
   <si>
     <t>Intensity</t>
@@ -624,6 +628,274 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3.37256454271938</v>
+      </c>
+      <c r="C2">
+        <v>1.228030388331835</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.152432018544496</v>
+      </c>
+      <c r="C3">
+        <v>0.9371981952713725</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1.936391051869284</v>
+      </c>
+      <c r="C4">
+        <v>1.299540292221979</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.646307600941612</v>
+      </c>
+      <c r="C5">
+        <v>1.010370196865093</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.633234469987312</v>
+      </c>
+      <c r="C6">
+        <v>1.095926661282552</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.581142676943348</v>
+      </c>
+      <c r="C7">
+        <v>1.250895601620963</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.391786378518901</v>
+      </c>
+      <c r="C8">
+        <v>0.6575954753682099</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.082034850388938</v>
+      </c>
+      <c r="C9">
+        <v>0.7976645030598668</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.9442832852264154</v>
+      </c>
+      <c r="C10">
+        <v>0.7647537645954905</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.9259319244100486</v>
+      </c>
+      <c r="C11">
+        <v>0.7961714382874533</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.8997824519310809</v>
+      </c>
+      <c r="C12">
+        <v>3.222990874012562</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.8848156413164452</v>
+      </c>
+      <c r="C13">
+        <v>3.223080824280641</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.8154134510845366</v>
+      </c>
+      <c r="C14">
+        <v>0.6585420257899309</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.7811250613699974</v>
+      </c>
+      <c r="C15">
+        <v>3.000004374548238</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -635,10 +907,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -786,7 +1058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -796,16 +1068,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1034,7 +1306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1044,16 +1316,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1146,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1156,16 +1428,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1360,7 +1632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1370,16 +1642,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
